--- a/src/16t/assets/LEG_2.xlsx
+++ b/src/16t/assets/LEG_2.xlsx
@@ -19,7 +19,7 @@
     <t>二级BOM 前支腿 2T，14˂S≤17米，4.5˂H0≤4.6m（图号：Z60532）</t>
   </si>
   <si>
-    <t>7020-01188</t>
+    <t>7020-01659</t>
   </si>
   <si>
     <t>前支腿</t>
@@ -46,7 +46,7 @@
     <t>00</t>
   </si>
   <si>
-    <t>7020-01456</t>
+    <t>7020-01927</t>
   </si>
   <si>
     <t>左腹板</t>
@@ -61,7 +61,7 @@
     <t>Q235B</t>
   </si>
   <si>
-    <t>7020-01457</t>
+    <t>7020-01928</t>
   </si>
   <si>
     <t>右腹板</t>
@@ -70,16 +70,16 @@
     <t>板 6×216×L2</t>
   </si>
   <si>
-    <t>7020-01458</t>
+    <t>7020-01929</t>
   </si>
   <si>
     <t>盖板</t>
   </si>
   <si>
-    <t>板 6×(上860，下280）×F</t>
-  </si>
-  <si>
-    <t>7020-01459</t>
+    <t>板 6×(上960，下280）×F</t>
+  </si>
+  <si>
+    <t>7020-01930</t>
   </si>
   <si>
     <t>加强筋</t>
@@ -88,7 +88,7 @@
     <t>板 5×50×E</t>
   </si>
   <si>
-    <t>7020-01460</t>
+    <t>7020-01931</t>
   </si>
   <si>
     <t>隔板（放样）</t>
@@ -97,13 +97,13 @@
     <t>板 5×218×L3(总长)</t>
   </si>
   <si>
-    <t>7020-01461</t>
+    <t>7020-01932</t>
   </si>
   <si>
     <t>上法兰</t>
   </si>
   <si>
-    <t>板 16×315×950</t>
+    <t>板 16×315×1050</t>
   </si>
   <si>
     <t>7020-00107</t>
@@ -144,9 +144,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -173,7 +173,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,15 +278,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,60 +293,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,37 +310,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,25 +343,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,145 +505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,15 +548,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,15 +582,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -611,6 +593,35 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,17 +649,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -657,10 +657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,133 +669,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,7 +1154,7 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
